--- a/website/everyday-update/data/industry_corr.xlsx
+++ b/website/everyday-update/data/industry_corr.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2959"/>
+  <dimension ref="A1:C2970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32676,10 +32676,10 @@
         <v>43126</v>
       </c>
       <c r="B2936">
-        <v>0.4599303180668319</v>
+        <v>0.4486441745521537</v>
       </c>
       <c r="C2936">
-        <v>0.6294248103824432</v>
+        <v>0.5953463387551986</v>
       </c>
     </row>
     <row r="2937" spans="1:3">
@@ -32687,10 +32687,10 @@
         <v>43129</v>
       </c>
       <c r="B2937">
-        <v>0.4591228013647783</v>
+        <v>0.4475404240848714</v>
       </c>
       <c r="C2937">
-        <v>0.62997598626815</v>
+        <v>0.6026349987636727</v>
       </c>
     </row>
     <row r="2938" spans="1:3">
@@ -32698,10 +32698,10 @@
         <v>43130</v>
       </c>
       <c r="B2938">
-        <v>0.4586225044146879</v>
+        <v>0.4467951668395955</v>
       </c>
       <c r="C2938">
-        <v>0.6301587959634476</v>
+        <v>0.6083040877785143</v>
       </c>
     </row>
     <row r="2939" spans="1:3">
@@ -32709,10 +32709,10 @@
         <v>43131</v>
       </c>
       <c r="B2939">
-        <v>0.4576467550129815</v>
+        <v>0.4455939220880443</v>
       </c>
       <c r="C2939">
-        <v>0.6292158759132302</v>
+        <v>0.6128589311962002</v>
       </c>
     </row>
     <row r="2940" spans="1:3">
@@ -32720,10 +32720,10 @@
         <v>43132</v>
       </c>
       <c r="B2940">
-        <v>0.4569480818299471</v>
+        <v>0.4448030124957315</v>
       </c>
       <c r="C2940">
-        <v>0.6268888004330885</v>
+        <v>0.6153423498926057</v>
       </c>
     </row>
     <row r="2941" spans="1:3">
@@ -32731,10 +32731,10 @@
         <v>43133</v>
       </c>
       <c r="B2941">
-        <v>0.4557194564253457</v>
+        <v>0.4434879744839298</v>
       </c>
       <c r="C2941">
-        <v>0.6231399473082255</v>
+        <v>0.6153025889478811</v>
       </c>
     </row>
     <row r="2942" spans="1:3">
@@ -32742,10 +32742,10 @@
         <v>43136</v>
       </c>
       <c r="B2942">
-        <v>0.454234837656609</v>
+        <v>0.4419437133093077</v>
       </c>
       <c r="C2942">
-        <v>0.6186530585373613</v>
+        <v>0.6143908855066972</v>
       </c>
     </row>
     <row r="2943" spans="1:3">
@@ -32753,10 +32753,10 @@
         <v>43137</v>
       </c>
       <c r="B2943">
-        <v>0.4566053451014865</v>
+        <v>0.4445812731115563</v>
       </c>
       <c r="C2943">
-        <v>0.6165285392860401</v>
+        <v>0.6125358250058043</v>
       </c>
     </row>
     <row r="2944" spans="1:3">
@@ -32764,10 +32764,10 @@
         <v>43138</v>
       </c>
       <c r="B2944">
-        <v>0.4605402760268928</v>
+        <v>0.4488467401500414</v>
       </c>
       <c r="C2944">
-        <v>0.6161400621918124</v>
+        <v>0.6107678891125584</v>
       </c>
     </row>
     <row r="2945" spans="1:3">
@@ -32775,10 +32775,10 @@
         <v>43139</v>
       </c>
       <c r="B2945">
-        <v>0.4648216853937214</v>
+        <v>0.4534255045292511</v>
       </c>
       <c r="C2945">
-        <v>0.6171628757738568</v>
+        <v>0.6115298281646427</v>
       </c>
     </row>
     <row r="2946" spans="1:3">
@@ -32786,10 +32786,10 @@
         <v>43140</v>
       </c>
       <c r="B2946">
-        <v>0.4744945014608635</v>
+        <v>0.4636717307202236</v>
       </c>
       <c r="C2946">
-        <v>0.6235728693879079</v>
+        <v>0.6153630420510312</v>
       </c>
     </row>
     <row r="2947" spans="1:3">
@@ -32797,10 +32797,10 @@
         <v>43143</v>
       </c>
       <c r="B2947">
-        <v>0.4807771217095801</v>
+        <v>0.4703550002081326</v>
       </c>
       <c r="C2947">
-        <v>0.6239050444854911</v>
+        <v>0.6178839503522411</v>
       </c>
     </row>
     <row r="2948" spans="1:3">
@@ -32808,10 +32808,10 @@
         <v>43144</v>
       </c>
       <c r="B2948">
-        <v>0.4856960180000764</v>
+        <v>0.4755982310785746</v>
       </c>
       <c r="C2948">
-        <v>0.6202707798133871</v>
+        <v>0.6198949461585106</v>
       </c>
     </row>
     <row r="2949" spans="1:3">
@@ -32819,10 +32819,10 @@
         <v>43145</v>
       </c>
       <c r="B2949">
-        <v>0.4897667973111237</v>
+        <v>0.4799437284400878</v>
       </c>
       <c r="C2949">
-        <v>0.6168269170021617</v>
+        <v>0.6107774215527225</v>
       </c>
     </row>
     <row r="2950" spans="1:3">
@@ -32830,10 +32830,10 @@
         <v>43153</v>
       </c>
       <c r="B2950">
-        <v>0.4916175479632656</v>
+        <v>0.4819293841850823</v>
       </c>
       <c r="C2950">
-        <v>0.6120321122209752</v>
+        <v>0.6037235115089519</v>
       </c>
     </row>
     <row r="2951" spans="1:3">
@@ -32841,10 +32841,10 @@
         <v>43154</v>
       </c>
       <c r="B2951">
-        <v>0.4933383131119493</v>
+        <v>0.4837641347551945</v>
       </c>
       <c r="C2951">
-        <v>0.6055934291262637</v>
+        <v>0.5963095257501545</v>
       </c>
     </row>
     <row r="2952" spans="1:3">
@@ -32852,10 +32852,10 @@
         <v>43157</v>
       </c>
       <c r="B2952">
-        <v>0.4939808128292691</v>
+        <v>0.484428905449997</v>
       </c>
       <c r="C2952">
-        <v>0.602253557055958</v>
+        <v>0.5922910186750829</v>
       </c>
     </row>
     <row r="2953" spans="1:3">
@@ -32863,10 +32863,10 @@
         <v>43158</v>
       </c>
       <c r="B2953">
-        <v>0.4952441091344296</v>
+        <v>0.4857523555737941</v>
       </c>
       <c r="C2953">
-        <v>0.5996589770633908</v>
+        <v>0.5887612626000179</v>
       </c>
     </row>
     <row r="2954" spans="1:3">
@@ -32874,10 +32874,10 @@
         <v>43159</v>
       </c>
       <c r="B2954">
-        <v>0.4969594576459741</v>
+        <v>0.4875521809721118</v>
       </c>
       <c r="C2954">
-        <v>0.5966185322063751</v>
+        <v>0.585388497470698</v>
       </c>
     </row>
     <row r="2955" spans="1:3">
@@ -32885,10 +32885,10 @@
         <v>43160</v>
       </c>
       <c r="B2955">
-        <v>0.4981766297540723</v>
+        <v>0.4887998680051897</v>
       </c>
       <c r="C2955">
-        <v>0.5948129111026279</v>
+        <v>0.5832314614711466</v>
       </c>
     </row>
     <row r="2956" spans="1:3">
@@ -32896,10 +32896,10 @@
         <v>43161</v>
       </c>
       <c r="B2956">
-        <v>0.4994493365174957</v>
+        <v>0.4901145107520137</v>
       </c>
       <c r="C2956">
-        <v>0.5930328541327238</v>
+        <v>0.5815910897406226</v>
       </c>
     </row>
     <row r="2957" spans="1:3">
@@ -32907,10 +32907,10 @@
         <v>43164</v>
       </c>
       <c r="B2957">
-        <v>0.5006257385642566</v>
+        <v>0.4913097202223559</v>
       </c>
       <c r="C2957">
-        <v>0.5921097125188781</v>
+        <v>0.5805329628535959</v>
       </c>
     </row>
     <row r="2958" spans="1:3">
@@ -32918,10 +32918,10 @@
         <v>43165</v>
       </c>
       <c r="B2958">
-        <v>0.5013076400266644</v>
+        <v>0.4919603658310557</v>
       </c>
       <c r="C2958">
-        <v>0.5922215673053532</v>
+        <v>0.5803914828458142</v>
       </c>
     </row>
     <row r="2959" spans="1:3">
@@ -32929,10 +32929,131 @@
         <v>43166</v>
       </c>
       <c r="B2959">
-        <v>0.5026426551503173</v>
+        <v>0.4933062331204464</v>
       </c>
       <c r="C2959">
-        <v>0.5907449488919845</v>
+        <v>0.5788087703677051</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:3">
+      <c r="A2960" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B2960">
+        <v>0.4941187079059411</v>
+      </c>
+      <c r="C2960">
+        <v>0.5782750053689558</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:3">
+      <c r="A2961" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B2961">
+        <v>0.4941462264784032</v>
+      </c>
+      <c r="C2961">
+        <v>0.5794812000522694</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:3">
+      <c r="A2962" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B2962">
+        <v>0.4941616048865278</v>
+      </c>
+      <c r="C2962">
+        <v>0.5813531438599592</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:3">
+      <c r="A2963" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B2963">
+        <v>0.4943117191540291</v>
+      </c>
+      <c r="C2963">
+        <v>0.5828166531513176</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:3">
+      <c r="A2964" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B2964">
+        <v>0.4940636000187912</v>
+      </c>
+      <c r="C2964">
+        <v>0.5847755756642282</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:3">
+      <c r="A2965" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B2965">
+        <v>0.494431761601285</v>
+      </c>
+      <c r="C2965">
+        <v>0.586128515458599</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:3">
+      <c r="A2966" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B2966">
+        <v>0.4949744292796525</v>
+      </c>
+      <c r="C2966">
+        <v>0.5887174571411742</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:3">
+      <c r="A2967" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B2967">
+        <v>0.495010767987099</v>
+      </c>
+      <c r="C2967">
+        <v>0.5925949671258549</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:3">
+      <c r="A2968" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B2968">
+        <v>0.4952406986834946</v>
+      </c>
+      <c r="C2968">
+        <v>0.597124604959888</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:3">
+      <c r="A2969" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B2969">
+        <v>0.4956567753154991</v>
+      </c>
+      <c r="C2969">
+        <v>0.6027488611924046</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:3">
+      <c r="A2970" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B2970">
+        <v>0.4960165514477567</v>
+      </c>
+      <c r="C2970">
+        <v>0.6085801113127768</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/industry_corr.xlsx
+++ b/website/everyday-update/data/industry_corr.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2970"/>
+  <dimension ref="A1:C2975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33056,6 +33056,61 @@
         <v>0.6085801113127768</v>
       </c>
     </row>
+    <row r="2971" spans="1:3">
+      <c r="A2971" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B2971">
+        <v>0.4997054664397694</v>
+      </c>
+      <c r="C2971">
+        <v>0.6088856600673586</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:3">
+      <c r="A2972" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B2972">
+        <v>0.5030892807938998</v>
+      </c>
+      <c r="C2972">
+        <v>0.6068084687131131</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:3">
+      <c r="A2973" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B2973">
+        <v>0.5055977771044976</v>
+      </c>
+      <c r="C2973">
+        <v>0.6047697945670437</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:3">
+      <c r="A2974" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B2974">
+        <v>0.5083555084560291</v>
+      </c>
+      <c r="C2974">
+        <v>0.6039213773241858</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:3">
+      <c r="A2975" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B2975">
+        <v>0.5109142537206717</v>
+      </c>
+      <c r="C2975">
+        <v>0.6022203018101575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/industry_corr.xlsx
+++ b/website/everyday-update/data/industry_corr.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3015"/>
+  <dimension ref="A1:C3044"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33551,6 +33551,325 @@
         <v>0.647845566491884</v>
       </c>
     </row>
+    <row r="3016" spans="1:3">
+      <c r="A3016" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B3016">
+        <v>0.5770855109195938</v>
+      </c>
+      <c r="C3016">
+        <v>0.6531381550095079</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:3">
+      <c r="A3017" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B3017">
+        <v>0.5782030591263194</v>
+      </c>
+      <c r="C3017">
+        <v>0.6579174229249165</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:3">
+      <c r="A3018" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B3018">
+        <v>0.5801514556796575</v>
+      </c>
+      <c r="C3018">
+        <v>0.6684822478647409</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:3">
+      <c r="A3019" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B3019">
+        <v>0.5812605537692632</v>
+      </c>
+      <c r="C3019">
+        <v>0.6775205502676632</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:3">
+      <c r="A3020" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B3020">
+        <v>0.5824887543760199</v>
+      </c>
+      <c r="C3020">
+        <v>0.6862879765919127</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:3">
+      <c r="A3021" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B3021">
+        <v>0.583545472823069</v>
+      </c>
+      <c r="C3021">
+        <v>0.6943235371429906</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:3">
+      <c r="A3022" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B3022">
+        <v>0.5857746243867598</v>
+      </c>
+      <c r="C3022">
+        <v>0.701345182926051</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:3">
+      <c r="A3023" s="2">
+        <v>43262</v>
+      </c>
+      <c r="B3023">
+        <v>0.5883035648183947</v>
+      </c>
+      <c r="C3023">
+        <v>0.7093061078270985</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:3">
+      <c r="A3024" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B3024">
+        <v>0.5904541603802899</v>
+      </c>
+      <c r="C3024">
+        <v>0.7171673536634171</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:3">
+      <c r="A3025" s="2">
+        <v>43264</v>
+      </c>
+      <c r="B3025">
+        <v>0.5932592949764495</v>
+      </c>
+      <c r="C3025">
+        <v>0.7238278577972185</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:3">
+      <c r="A3026" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B3026">
+        <v>0.5964376886152208</v>
+      </c>
+      <c r="C3026">
+        <v>0.7255804215019166</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:3">
+      <c r="A3027" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B3027">
+        <v>0.6004446374571125</v>
+      </c>
+      <c r="C3027">
+        <v>0.7252616707364035</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:3">
+      <c r="A3028" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B3028">
+        <v>0.6091473232169461</v>
+      </c>
+      <c r="C3028">
+        <v>0.7277242870688473</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:3">
+      <c r="A3029" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B3029">
+        <v>0.6159555029876089</v>
+      </c>
+      <c r="C3029">
+        <v>0.7288461791468805</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:3">
+      <c r="A3030" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B3030">
+        <v>0.6236583963246243</v>
+      </c>
+      <c r="C3030">
+        <v>0.7327416745268106</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:3">
+      <c r="A3031" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B3031">
+        <v>0.6302316328792656</v>
+      </c>
+      <c r="C3031">
+        <v>0.7405038476966956</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:3">
+      <c r="A3032" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B3032">
+        <v>0.6370170571395268</v>
+      </c>
+      <c r="C3032">
+        <v>0.752993365733419</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:3">
+      <c r="A3033" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B3033">
+        <v>0.6433537832593158</v>
+      </c>
+      <c r="C3033">
+        <v>0.7635348281731531</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:3">
+      <c r="A3034" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B3034">
+        <v>0.6505271495411339</v>
+      </c>
+      <c r="C3034">
+        <v>0.7717182451149223</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:3">
+      <c r="A3035" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B3035">
+        <v>0.6578898580555143</v>
+      </c>
+      <c r="C3035">
+        <v>0.7812274993125757</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:3">
+      <c r="A3036" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B3036">
+        <v>0.6628337869605213</v>
+      </c>
+      <c r="C3036">
+        <v>0.7933644077483184</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:3">
+      <c r="A3037" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B3037">
+        <v>0.6690235619339855</v>
+      </c>
+      <c r="C3037">
+        <v>0.8059278823270631</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:3">
+      <c r="A3038" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B3038">
+        <v>0.6746536372625905</v>
+      </c>
+      <c r="C3038">
+        <v>0.8153207577235553</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:3">
+      <c r="A3039" s="2">
+        <v>43285</v>
+      </c>
+      <c r="B3039">
+        <v>0.6809739739591146</v>
+      </c>
+      <c r="C3039">
+        <v>0.8228975291261462</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:3">
+      <c r="A3040" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B3040">
+        <v>0.6880076583763773</v>
+      </c>
+      <c r="C3040">
+        <v>0.8309428467342815</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:3">
+      <c r="A3041" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B3041">
+        <v>0.6943685522280392</v>
+      </c>
+      <c r="C3041">
+        <v>0.8385401844401799</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:3">
+      <c r="A3042" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B3042">
+        <v>0.698464905670705</v>
+      </c>
+      <c r="C3042">
+        <v>0.8453408733671791</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:3">
+      <c r="A3043" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B3043">
+        <v>0.7019088150714513</v>
+      </c>
+      <c r="C3043">
+        <v>0.8515100674061387</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:3">
+      <c r="A3044" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B3044">
+        <v>0.7060807901142021</v>
+      </c>
+      <c r="C3044">
+        <v>0.8574091435512187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/industry_corr.xlsx
+++ b/website/everyday-update/data/industry_corr.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3167"/>
+  <dimension ref="A1:C3168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35223,6 +35223,17 @@
         <v>0.9723962348363716</v>
       </c>
     </row>
+    <row r="3168" spans="1:3">
+      <c r="A3168" s="2">
+        <v>43476</v>
+      </c>
+      <c r="B3168">
+        <v>0.9198790304470293</v>
+      </c>
+      <c r="C3168">
+        <v>0.971399956338922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
